--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_0_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_0_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.058561309741357e-05</v>
+        <v>0.0005988829155219033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001421239250230764</v>
+        <v>0.001874157448087941</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.676193604761195</v>
+        <v>5.036236294306541</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.897189198921973, 8.455198010600418]</t>
+          <t>[1.7788464357503457, 8.293626152862736]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.264302809062428e-05</v>
+        <v>0.002542173467790843</v>
       </c>
       <c r="N2" t="n">
-        <v>7.264302809062428e-05</v>
+        <v>0.002542173467790843</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.320789704211925</v>
+        <v>-1.119526511189155</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8994213841523866, -0.7421580242714629]</t>
+          <t>[-1.8113687372049254, -0.4276842851733855]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9.823413439580264e-06</v>
+        <v>0.001594235987067538</v>
       </c>
       <c r="R2" t="n">
-        <v>9.823413439580264e-06</v>
+        <v>0.001594235987067538</v>
       </c>
       <c r="S2" t="n">
-        <v>13.65140488501519</v>
+        <v>13.80974262299364</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.025991594594512, 15.276818175435867]</t>
+          <t>[12.013063250126606, 15.606421995860678]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.463363363363491</v>
+        <v>4.584524524524628</v>
       </c>
       <c r="X2" t="n">
-        <v>3.069889889889963</v>
+        <v>1.751391391391432</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.85683683683702</v>
+        <v>7.417657657657824</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.41000000000038</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2360647066334e-05</v>
+        <v>0.0001016424832075424</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001421239250230764</v>
+        <v>0.001195033916137144</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.697767952897845</v>
+        <v>6.212639203387241</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.6368454075604966, 9.758690498235193]</t>
+          <t>[2.872998260273283, 9.552280146501198]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.279643987579405e-05</v>
+        <v>0.0002986674906351183</v>
       </c>
       <c r="N3" t="n">
-        <v>4.55928797515881e-05</v>
+        <v>0.0005973349812702367</v>
       </c>
       <c r="O3" t="n">
-        <v>3.062974218815274</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.4717635893108882, 3.6541848483196597]</t>
+          <t>[2.295658295415965, 3.679342747447506]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>13.93481552034327</v>
+        <v>14.55156945693047</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.001180721545875, 15.868450319140667]</t>
+          <t>[12.559491601803051, 16.543647312057892]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.51043043043062</v>
+        <v>12.7879079079081</v>
       </c>
       <c r="X3" t="n">
-        <v>10.21359359359375</v>
+        <v>10.10342342342358</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.80726726726749</v>
+        <v>15.47239239239263</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_0_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_0_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005988829155219033</v>
+        <v>3.455236595040212e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001874157448087941</v>
+        <v>0.000571986764821301</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.036236294306541</v>
+        <v>5.748427966587829</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.7788464357503457, 8.293626152862736]</t>
+          <t>[2.736055588642122, 8.760800344533536]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002542173467790843</v>
+        <v>0.0002054776048117102</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002542173467790843</v>
+        <v>0.0004109552096234204</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.119526511189155</v>
+        <v>-1.295631805084079</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8113687372049254, -0.4276842851733855]</t>
+          <t>[-1.9120003337163105, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001594235987067538</v>
+        <v>4.49870835470545e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001594235987067538</v>
+        <v>4.49870835470545e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>13.80974262299364</v>
+        <v>13.99509099308296</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.013063250126606, 15.606421995860678]</t>
+          <t>[12.259329482778847, 15.730852503387082]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.584524524524628</v>
+        <v>5.332492492492616</v>
       </c>
       <c r="X2" t="n">
-        <v>1.751391391391432</v>
+        <v>2.795675675675739</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.417657657657824</v>
+        <v>7.869309309309493</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.38000000000037</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001016424832075424</v>
+        <v>7.919875538831e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001195033916137144</v>
+        <v>0.000571986764821301</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.212639203387241</v>
+        <v>5.82176447783216</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.872998260273283, 9.552280146501198]</t>
+          <t>[2.5444632133254075, 9.099065742338913]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0002986674906351183</v>
+        <v>0.000546559662909285</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0005973349812702367</v>
+        <v>0.000546559662909285</v>
       </c>
       <c r="O3" t="n">
-        <v>2.987500521431735</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.295658295415965, 3.679342747447506]</t>
+          <t>[2.1447109006488887, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>14.55156945693047</v>
+        <v>13.36161087012123</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.559491601803051, 16.543647312057892]</t>
+          <t>[11.519117021263716, 15.20410471897875]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.7879079079081</v>
+        <v>13.49231231231251</v>
       </c>
       <c r="X3" t="n">
-        <v>10.10342342342358</v>
+        <v>10.95945945945962</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.47239239239263</v>
+        <v>16.0251651651654</v>
       </c>
     </row>
   </sheetData>
